--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject25.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject25.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.79711416233203547</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -158,13 +158,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -188,13 +188,13 @@
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="0">
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.53433139958674802</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -212,10 +212,10 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>0.50469638675598993</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -334,19 +334,19 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.57204469448596218</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>0.60132826682886087</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="0">
-        <v>0</v>
+        <v>0.77524672153854124</v>
       </c>
       <c r="AC2" s="0">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="0">
         <v>0</v>
@@ -463,16 +463,16 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>0</v>
+        <v>0.95859703601678059</v>
       </c>
       <c r="AS2" s="0">
-        <v>0</v>
+        <v>0.55168448624765865</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>0</v>
+        <v>0.89972697090764631</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.64880946237965209</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>0</v>
+        <v>0.97709917399788437</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.846149787624494</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0</v>
+        <v>0.94113570773912913</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>0.96628045553914821</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.63575244226447647</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0</v>
+        <v>0.53537561612272222</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.59234979234712726</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.62404132637093923</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="0">
-        <v>0</v>
+        <v>0.71883074053721607</v>
       </c>
       <c r="AT5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.77457588789477128</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>0.91136965025582783</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0">
-        <v>0</v>
+        <v>0.55650757183624378</v>
       </c>
       <c r="Y6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.8109421555121441</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>0.95362879164574754</v>
       </c>
       <c r="M7" s="0">
-        <v>0</v>
+        <v>0.62835398828381517</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>0</v>
+        <v>0.99400871816479164</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>0</v>
+        <v>0.75369156733482823</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.75617216807853949</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0</v>
+        <v>0.59746870066333546</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>0</v>
+        <v>0.54770803202436436</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1699,16 +1699,16 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>0</v>
+        <v>0.76777978395652047</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0</v>
+        <v>0.65773723236096027</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0</v>
+        <v>0.80115907109769968</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="0">
-        <v>0</v>
+        <v>0.7887321342714122</v>
       </c>
       <c r="V9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>0</v>
+        <v>0.91801708938050197</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.91921606069174344</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.91236848701384599</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2177,18 +2177,18 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>0</v>
+        <v>0.93921973344481791</v>
       </c>
       <c r="BP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.51981733364874927</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.61465275367859462</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>0</v>
+        <v>0.65001047291403102</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2412,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>0.81648953709944783</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>0.57029183897562863</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0</v>
+        <v>0.90606253857766639</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="BH12" s="0">
-        <v>0</v>
+        <v>0.87442207690629026</v>
       </c>
       <c r="BI12" s="0">
         <v>0</v>
@@ -2592,15 +2592,15 @@
         <v>0</v>
       </c>
       <c r="BO12" s="0">
-        <v>0</v>
+        <v>0.92863781701922543</v>
       </c>
       <c r="BP12" s="0">
-        <v>0</v>
+        <v>0.6672054086020055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0</v>
+        <v>0.8070067064894666</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.80783009190845556</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.52074117204339676</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0</v>
+        <v>0.55264110529407073</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>0</v>
+        <v>0.9702420309743498</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.99567343582905521</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0</v>
+        <v>0.85800720546039111</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0</v>
+        <v>0.84685868917077434</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>1</v>
+        <v>0.51385440701358931</v>
       </c>
     </row>
     <row r="15">
@@ -3030,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0</v>
+        <v>0.70567183177776949</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0</v>
+        <v>0.99328437247064194</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0</v>
+        <v>0.57065664131384031</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0</v>
+        <v>0.62090283775303723</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>0</v>
+        <v>0.75524975803487449</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.64723501927129812</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.6379171918754396</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.97089824070128317</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>0</v>
+        <v>0.81058577316638036</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>0</v>
+        <v>0.63895720499129816</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0</v>
+        <v>0.58786126064119892</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3801,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0</v>
+        <v>0.83023288025397723</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>0</v>
+        <v>0.93715534524558231</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.64875165885480912</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.54297519733390298</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4004,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.99908920495838149</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>0</v>
+        <v>0.56957521127606547</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.5534875182125274</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.73230425592780302</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0">
-        <v>0</v>
+        <v>0.72342701912359331</v>
       </c>
       <c r="J21" s="0">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.67440629488505177</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4350,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0</v>
+        <v>0.78664680728615566</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>0</v>
+        <v>0.99196140191755333</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="0">
-        <v>0</v>
+        <v>0.69923728307585009</v>
       </c>
       <c r="BA21" s="0">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="BG21" s="0">
-        <v>0</v>
+        <v>0.68496088495999852</v>
       </c>
       <c r="BH21" s="0">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>0</v>
+        <v>0.65292502096314076</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>1</v>
+        <v>0.6590193024162303</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.81535464425547022</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>0</v>
+        <v>0.73397625449914006</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.79088610171581952</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>0</v>
+        <v>0.82367796973524232</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>0</v>
+        <v>0.61616758094441171</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>0.92157000195238836</v>
       </c>
       <c r="G24" s="0">
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>0</v>
+        <v>0.93941499679131479</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0</v>
+        <v>0.69230528423742155</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>0</v>
+        <v>0.95427193877013117</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0</v>
+        <v>0.95876369124220195</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5204,16 +5204,16 @@
         <v>0</v>
       </c>
       <c r="AS25" s="0">
-        <v>0</v>
+        <v>0.8544689743619226</v>
       </c>
       <c r="AT25" s="0">
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="0">
-        <v>0</v>
+        <v>0.7920613922552413</v>
       </c>
       <c r="AW25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0</v>
+        <v>0.56807545420504757</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.91955746959779661</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>0</v>
+        <v>0.97983802265535491</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>0</v>
+        <v>0.93089599663645528</v>
       </c>
       <c r="BO26" s="0">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.83550837302522485</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5574,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.64705198119042817</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0</v>
+        <v>0.75318780039605238</v>
       </c>
     </row>
     <row r="28">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
+        <v>0.55049114783729935</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0</v>
+        <v>0.63610433852136228</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0</v>
+        <v>0.87807296774601218</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5908,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>0.50152176775499568</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="0">
-        <v>0</v>
+        <v>0.60732205231760528</v>
       </c>
       <c r="N29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5989,19 +5989,19 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0</v>
+        <v>0.6776204526793117</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>0</v>
+        <v>0.9626305082890978</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.82056106739052259</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6102,13 +6102,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.89084579311904133</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6162,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>0</v>
+        <v>0.60920476336301499</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0</v>
+        <v>0.90017657343572144</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.91186268242651458</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.60935145073257202</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.70369871521871308</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.76962541964495246</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>0</v>
+        <v>0.88036959301212026</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>0</v>
+        <v>0.50060447802793262</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6592,19 +6592,19 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="0">
         <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>0</v>
+        <v>0.98114959586775363</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.72643545549144117</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.86303267917034066</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0</v>
+        <v>0.51040441918631174</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>0</v>
+        <v>0.81006783074807243</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.9895998824031117</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6879,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7001,16 +7001,16 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0</v>
+        <v>0.63660470553326642</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0</v>
+        <v>0.92241548949535401</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.93771025485342963</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>0.91209878751200213</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>0.84704485433920063</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.66765661411938093</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7288,13 +7288,13 @@
         <v>0</v>
       </c>
       <c r="BA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="0">
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.8932630508161381</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7312,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0</v>
+        <v>0.80272736476224005</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.97347934491563315</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
+        <v>0.63780899527627866</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7368,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>0.63664003965681415</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.93331296603816161</v>
       </c>
       <c r="AD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.66931847650178256</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0</v>
+        <v>0.84785549353629464</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7604,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>0</v>
+        <v>0.95850940402992324</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>0</v>
+        <v>0.98513809722119183</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.81714969314354113</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>0</v>
+        <v>0.90986066338413507</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7679,13 +7679,13 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0</v>
+        <v>0.53649876015365194</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.93315715699739377</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0</v>
+        <v>0.72282363800623872</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0</v>
+        <v>0.9173344802154495</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.86473656645212049</v>
       </c>
       <c r="AO38" s="0">
-        <v>1</v>
+        <v>0.97804628128114324</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="BG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>0</v>
+        <v>0.64580632519335102</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>0</v>
+        <v>0.79858986282255939</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="0">
         <v>0</v>
@@ -8130,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>0</v>
+        <v>0.86867721846597501</v>
       </c>
       <c r="BH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.82706244825391295</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>0</v>
+        <v>0.70497518900873668</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.77662255788160994</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="0">
-        <v>0</v>
+        <v>0.66659347267301694</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8476,16 +8476,16 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0</v>
+        <v>0.8751450760799937</v>
       </c>
       <c r="AL41" s="0">
-        <v>1</v>
+        <v>0.53768062027710462</v>
       </c>
       <c r="AM41" s="0">
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="0">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.98644139570324574</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0</v>
+        <v>0.81998322831438464</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8816,13 +8816,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0</v>
+        <v>0.77007724588965354</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>0.56118982738554113</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.57417843876984631</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="AV43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="0">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>0</v>
+        <v>0.56347542229311309</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0</v>
+        <v>0.96051604029942472</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.9051226079714243</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.82472624672699713</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.86413025922305953</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
@@ -9195,16 +9195,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
+        <v>0.78548014363600926</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>0</v>
+        <v>0.71298025891134942</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0</v>
+        <v>0.69672502711735862</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>0</v>
+        <v>0.80079791067381478</v>
       </c>
       <c r="Z45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.82073501520990066</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.71466884348805149</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.68987595146480496</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9390,10 +9390,10 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.81875790657938696</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.7989475780678017</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9503,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0</v>
+        <v>0.63941219450110975</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.77829125258906529</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9584,13 +9584,13 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.82601359657063322</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>0</v>
+        <v>0.81443164124754208</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>0</v>
+        <v>0.70198158186404025</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="0">
         <v>0</v>
@@ -9676,13 +9676,13 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.84323132305124948</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.91331318490406965</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>1</v>
+        <v>0.65529955406279083</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9819,13 +9819,13 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
+        <v>0.89897432078416961</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.50042757321400755</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9879,10 +9879,10 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0</v>
+        <v>0.50820882340134466</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9918,13 +9918,13 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.64985564486674896</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
       </c>
       <c r="AM48" s="0">
-        <v>0</v>
+        <v>0.89474089559511394</v>
       </c>
       <c r="AN48" s="0">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0</v>
+        <v>0.61234732147863746</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.68373488093729384</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0</v>
+        <v>0.64993406582939683</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10315,13 +10315,13 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.59213036670090169</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,13 +10393,13 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0</v>
+        <v>0.68243391653986363</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0</v>
+        <v>0.93609005650059385</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0</v>
+        <v>0.82753349792405384</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>0</v>
+        <v>0.97699711584378335</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10593,16 +10593,16 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.99843079138180424</v>
       </c>
       <c r="BE51" s="0">
-        <v>0</v>
+        <v>0.55930854587874435</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
       </c>
       <c r="BG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="0">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>0</v>
+        <v>0.72386580975501036</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="0">
-        <v>0</v>
+        <v>0.98158201391922639</v>
       </c>
       <c r="V52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.51814504724289323</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0</v>
+        <v>0.70348137644790465</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.56130293553210486</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>0</v>
+        <v>0.66972036291955117</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.58299109885642908</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10999,25 +10999,25 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.63264138553351823</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0</v>
+        <v>0.70973307724818879</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>0</v>
+        <v>0.56762475265381895</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.9252603756643385</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.71143369429290026</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.57024703842874946</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>0</v>
+        <v>0.97411166095329427</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.52593418684787396</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11348,16 +11348,16 @@
         <v>0</v>
       </c>
       <c r="AG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.80503233294258125</v>
       </c>
       <c r="AJ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.78651114755187923</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.59290608584133242</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11602,19 +11602,19 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>0</v>
+        <v>0.81739025293621448</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.54794286829382377</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -11787,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0</v>
+        <v>0.74188846249032436</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>0</v>
+        <v>0.96446061576584519</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>0</v>
+        <v>0.99559948718836644</v>
       </c>
     </row>
     <row r="58">
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0</v>
+        <v>0.56355600843863196</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0</v>
+        <v>0.968430666934049</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11939,10 +11939,10 @@
         <v>0</v>
       </c>
       <c r="X58" s="0">
-        <v>0</v>
+        <v>0.73677271243919695</v>
       </c>
       <c r="Y58" s="0">
-        <v>0</v>
+        <v>0.69562366665212283</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>0</v>
+        <v>0.6654991762088921</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>1</v>
+        <v>0.65684526638992979</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12017,19 +12017,19 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0</v>
+        <v>0.82691054361558192</v>
       </c>
       <c r="BA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.78132845563441777</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
       </c>
       <c r="U59" s="0">
-        <v>0</v>
+        <v>0.5077528852303379</v>
       </c>
       <c r="V59" s="0">
         <v>0</v>
@@ -12187,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="AL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>0</v>
+        <v>0.56997607327096977</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AY59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12271,13 +12271,13 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>0</v>
+        <v>0.80557608676514203</v>
       </c>
       <c r="BO59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>0</v>
+        <v>0.64953010288925772</v>
       </c>
     </row>
     <row r="60">
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>0</v>
+        <v>0.68371621049737441</v>
       </c>
       <c r="M60" s="0">
-        <v>0</v>
+        <v>0.68573155270501096</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0</v>
+        <v>0.7197176899973976</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>1</v>
+        <v>0.89951687238219669</v>
       </c>
       <c r="W60" s="0">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>0</v>
+        <v>0.7356301385179167</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0</v>
+        <v>0.82024825285021796</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0</v>
+        <v>0.59329510988844425</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0</v>
+        <v>0.58875096453341846</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>0</v>
+        <v>0.85208756597441271</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12865,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.81866735365312215</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13002,10 +13002,10 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0</v>
+        <v>0.5641512187706299</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.76122876527188921</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13050,10 +13050,10 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>0</v>
+        <v>0.58866790940198688</v>
       </c>
       <c r="AZ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.50405930321783288</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.56729957645781992</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0</v>
+        <v>0.78795813714552576</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.87750554399675484</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,13 +13301,13 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.68679252474894903</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0</v>
+        <v>0.90042294868225792</v>
       </c>
     </row>
     <row r="65">
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.88155466523869874</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0</v>
+        <v>0.59295506670300424</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.7636528621726455</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0</v>
+        <v>0.53861966207184131</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13590,10 +13590,10 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>0</v>
+        <v>0.68917860487749349</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13626,13 +13626,13 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0</v>
+        <v>0.92307064435511199</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0</v>
+        <v>0.81388246485614646</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.80146774345419369</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13751,13 +13751,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0</v>
+        <v>0.93759978594523552</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>0</v>
+        <v>0.67462238272419262</v>
       </c>
       <c r="M67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13790,10 +13790,10 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>0</v>
+        <v>0.6815875997903369</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="BG67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.95973124279725175</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13957,19 +13957,19 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0</v>
+        <v>0.61417553834115401</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1</v>
+        <v>0.96095529229039101</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0</v>
+        <v>0.9308514287297085</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14062,19 +14062,19 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14098,13 +14098,13 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>0</v>
+        <v>0.50548174628125997</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
       </c>
       <c r="BG68" s="0">
-        <v>0</v>
+        <v>0.76381044835924561</v>
       </c>
       <c r="BH68" s="0">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0</v>
+        <v>0.66690712406249564</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject25.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject25.xlsx
@@ -117,7 +117,7 @@
     <col min="59" max="59" width="12.7109375" customWidth="true"/>
     <col min="60" max="60" width="12.7109375" customWidth="true"/>
     <col min="61" max="61" width="12.7109375" customWidth="true"/>
-    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="11.7109375" customWidth="true"/>
     <col min="63" max="63" width="12.7109375" customWidth="true"/>
     <col min="64" max="64" width="12.7109375" customWidth="true"/>
     <col min="65" max="65" width="12.7109375" customWidth="true"/>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0.53433139958674802</v>
+        <v>0.81535464425547022</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.50469638675598993</v>
+        <v>0.97347934491563315</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.57204469448596218</v>
+        <v>0.79711416233203547</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0.60132826682886087</v>
+        <v>0.91921606069174344</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>0.95859703601678059</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.55168448624765865</v>
+        <v>0.78548014363600926</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>0.94113570773912913</v>
+        <v>0.97411166095329427</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0.63575244226447647</v>
+        <v>0.81875790657938696</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0.53537561612272222</v>
+        <v>0.53861966207184131</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.59234979234712726</v>
+        <v>0.77457588789477128</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0">
-        <v>0.55650757183624378</v>
+        <v>0.92157000195238836</v>
       </c>
       <c r="Y6" s="0">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0.95362879164574754</v>
       </c>
       <c r="M7" s="0">
-        <v>0.62835398828381517</v>
+        <v>0.8070067064894666</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.75617216807853949</v>
+        <v>0.91236848701384599</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.59746870066333546</v>
+        <v>0.63610433852136228</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.54770803202436436</v>
+        <v>0.66659347267301694</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.65773723236096027</v>
+        <v>0.93609005650059385</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.51981733364874927</v>
+        <v>0.80783009190845556</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.61465275367859462</v>
+        <v>0.83550837302522485</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0.81648953709944783</v>
+        <v>0.95362879164574754</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0.57029183897562863</v>
+        <v>0.80115907109769968</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.52074117204339676</v>
+        <v>0.99567343582905521</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.55264110529407073</v>
+        <v>0.60732205231760528</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.85800720546039111</v>
+        <v>0.95876369124220195</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0.84685868917077434</v>
+        <v>0.91209878751200213</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>0.51385440701358931</v>
+        <v>0.96095529229039101</v>
       </c>
     </row>
     <row r="15">
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0.70567183177776949</v>
+        <v>0.77007724588965354</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0.62090283775303723</v>
+        <v>0.91136965025582783</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.64723501927129812</v>
+        <v>0.89084579311904133</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.6379171918754396</v>
+        <v>0.64875165885480912</v>
       </c>
       <c r="T17" s="0">
         <v>0.97089824070128317</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>0.63895720499129816</v>
+        <v>0.99400871816479164</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.58786126064119892</v>
+        <v>0.9173344802154495</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0.83023288025397723</v>
+        <v>0.968430666934049</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>0.56957521127606547</v>
+        <v>0.85208756597441271</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.5534875182125274</v>
+        <v>0.97089824070128317</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0">
-        <v>0.72342701912359331</v>
+        <v>0.7887321342714122</v>
       </c>
       <c r="J21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.67440629488505177</v>
+        <v>0.79088610171581952</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0.78664680728615566</v>
+        <v>0.84704485433920063</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="0">
-        <v>0.69923728307585009</v>
+        <v>0.98158201391922639</v>
       </c>
       <c r="BA21" s="0">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>0.65292502096314076</v>
+        <v>0.66972036291955117</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>0.6590193024162303</v>
+        <v>0.89951687238219669</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>0.73397625449914006</v>
+        <v>0.75524975803487449</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>0.61616758094441171</v>
+        <v>0.98513809722119183</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0.69230528423742155</v>
+        <v>0.73677271243919695</v>
       </c>
       <c r="BG24" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0.56807545420504757</v>
+        <v>0.69562366665212283</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0.91955746959779661</v>
+        <v>0.97709917399788437</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0.64705198119042817</v>
+        <v>0.88155466523869874</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0.75318780039605238</v>
+        <v>0.9308514287297085</v>
       </c>
     </row>
     <row r="28">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>0.55049114783729935</v>
+        <v>0.77524672153854124</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0.50152176775499568</v>
+        <v>0.62404132637093923</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0.6776204526793117</v>
+        <v>0.98114959586775363</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0.82056106739052259</v>
+        <v>0.93331296603816161</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>0.60920476336301499</v>
+        <v>0.82367796973524232</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.90017657343572144</v>
+        <v>0.97983802265535491</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0.60935145073257202</v>
+        <v>0.7989475780678017</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.70369871521871308</v>
+        <v>0.86303267917034066</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.76962541964495246</v>
+        <v>0.81714969314354113</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>0.50060447802793262</v>
+        <v>0.93941499679131479</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0.98114959586775363</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.72643545549144117</v>
+        <v>0.91186268242651458</v>
       </c>
       <c r="AE32" s="0">
         <v>0.86303267917034066</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0.51040441918631174</v>
+        <v>0.6654991762088921</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0.63660470553326642</v>
+        <v>0.9626305082890978</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0.92241548949535401</v>
+        <v>0.96051604029942472</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.66765661411938093</v>
+        <v>0.66931847650178256</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0.63780899527627866</v>
+        <v>0.96628045553914821</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>0.63664003965681415</v>
+        <v>0.90606253857766639</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>0.95850940402992324</v>
+        <v>0.99196140191755333</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0.53649876015365194</v>
+        <v>0.63941219450110975</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0.72282363800623872</v>
+        <v>0.92307064435511199</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>0.64580632519335102</v>
+        <v>0.81006783074807243</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>0.79858986282255939</v>
+        <v>0.89474089559511394</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.82706244825391295</v>
+        <v>0.86473656645212049</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>0.70497518900873668</v>
+        <v>0.97699711584378335</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>0.8751450760799937</v>
+        <v>0.90986066338413507</v>
       </c>
       <c r="AL41" s="0">
-        <v>0.53768062027710462</v>
+        <v>0.97804628128114324</v>
       </c>
       <c r="AM41" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0.56118982738554113</v>
+        <v>0.87807296774601218</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.57417843876984631</v>
+        <v>0.82472624672699713</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>0.56347542229311309</v>
+        <v>0.95859703601678059</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.9051226079714243</v>
+        <v>0.98644139570324574</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.82472624672699713</v>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>0.71298025891134942</v>
+        <v>0.71883074053721607</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0.69672502711735862</v>
+        <v>0.76777978395652047</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>0.80079791067381478</v>
+        <v>0.8544689743619226</v>
       </c>
       <c r="Z45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0.82073501520990066</v>
+        <v>0.9895998824031117</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.71466884348805149</v>
+        <v>0.86413025922305953</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0.68987595146480496</v>
+        <v>0.9252603756643385</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.77829125258906529</v>
+        <v>0.84323132305124948</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>0.70198158186404025</v>
+        <v>0.89972697090764631</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0.65529955406279083</v>
+        <v>0.65684526638992979</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0.89897432078416961</v>
+        <v>0.91801708938050197</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.50042757321400755</v>
+        <v>0.54297519733390298</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>0.50820882340134466</v>
+        <v>0.7920613922552413</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0.64985564486674896</v>
+        <v>0.93315715699739377</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.61234732147863746</v>
+        <v>0.88036959301212026</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.68373488093729384</v>
+        <v>0.91331318490406965</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0.64993406582939683</v>
+        <v>0.81739025293621448</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0.68243391653986363</v>
+        <v>0.7356301385179167</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0.82753349792405384</v>
+        <v>0.99328437247064194</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0.99843079138180424</v>
       </c>
       <c r="BE51" s="0">
-        <v>0.55930854587874435</v>
+        <v>0.96446061576584519</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.51814504724289323</v>
+        <v>0.59213036670090169</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0.70348137644790465</v>
+        <v>0.82691054361558192</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0.56130293553210486</v>
+        <v>0.846149787624494</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0.58299109885642908</v>
+        <v>0.77662255788160994</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.63264138553351823</v>
+        <v>0.71143369429290026</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0.70973307724818879</v>
+        <v>0.82024825285021796</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>0.56762475265381895</v>
+        <v>0.75369156733482823</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.57024703842874946</v>
+        <v>0.78651114755187923</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0.52593418684787396</v>
+        <v>0.73230425592780302</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.80503233294258125</v>
+        <v>0.8932630508161381</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0.59290608584133242</v>
+        <v>0.93771025485342963</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.54794286829382377</v>
+        <v>0.99843079138180424</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0.74188846249032436</v>
+        <v>0.81998322831438464</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>0.56355600843863196</v>
+        <v>0.57065664131384031</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -12130,13 +12130,13 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0.78132845563441777</v>
+        <v>0.99908920495838149</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
       </c>
       <c r="U59" s="0">
-        <v>0.5077528852303379</v>
+        <v>0.68496088495999852</v>
       </c>
       <c r="V59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>0.56997607327096977</v>
+        <v>0.86867721846597501</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12271,13 +12271,13 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>0.80557608676514203</v>
+        <v>0.81388246485614646</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>0.64953010288925772</v>
+        <v>0.76381044835924561</v>
       </c>
     </row>
     <row r="60">
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>0.68371621049737441</v>
+        <v>0.87442207690629026</v>
       </c>
       <c r="M60" s="0">
-        <v>0.68573155270501096</v>
+        <v>0.9702420309743498</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0.7197176899973976</v>
+        <v>0.93715534524558231</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>0.59329510988844425</v>
+        <v>0.65001047291403102</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0.58875096453341846</v>
+        <v>0.80272736476224005</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.81866735365312215</v>
+        <v>0.87750554399675484</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0.5641512187706299</v>
+        <v>0.84785549353629464</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0.76122876527188921</v>
+        <v>0.82601359657063322</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>0.58866790940198688</v>
+        <v>0.72386580975501036</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.50405930321783288</v>
+        <v>0.64880946237965209</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0.56729957645781992</v>
+        <v>0.8109421555121441</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.78795813714552576</v>
+        <v>0.81058577316638036</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.68679252474894903</v>
+        <v>0.80146774345419369</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0.59295506670300424</v>
+        <v>0.81443164124754208</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.7636528621726455</v>
+        <v>0.95973124279725175</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>0.68917860487749349</v>
+        <v>0.93089599663645528</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13751,13 +13751,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.93759978594523552</v>
+        <v>0.93921973344481791</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>0.67462238272419262</v>
+        <v>0.92863781701922543</v>
       </c>
       <c r="M67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>0.6815875997903369</v>
+        <v>0.95427193877013117</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0.61417553834115401</v>
+        <v>0.6672054086020055</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>0.50548174628125997</v>
+        <v>0.99559948718836644</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0.66690712406249564</v>
+        <v>0.90042294868225792</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
